--- a/Autoridad_indigena.xlsx
+++ b/Autoridad_indigena.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\2021(MIN-INTERIOR)\DAIRM\MAPAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\2021(MIN-INTERIOR)\DAIRM\MAPAS\hector-urquijo.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B685B8-8CC0-4560-994A-FC0B73115C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF0638-A475-4080-837F-306A84CCC49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEE4D1AB-B4E6-469D-9668-4B7D1DD2186E}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{AEE4D1AB-B4E6-469D-9668-4B7D1DD2186E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1378">
   <si>
     <t xml:space="preserve">ANA PATRICIA </t>
   </si>
@@ -3729,88 +3729,448 @@
     <t>NOMBRE_DPT</t>
   </si>
   <si>
-    <t>SANTAFE DE BOGOTA D.C.</t>
-  </si>
-  <si>
-    <t>CUASPUD</t>
-  </si>
-  <si>
-    <t>PURACE</t>
-  </si>
-  <si>
-    <t>COLON</t>
-  </si>
-  <si>
-    <t>TIMBIQUI</t>
-  </si>
-  <si>
-    <t>PUERTO LEGUIZAMO</t>
-  </si>
-  <si>
-    <t>IQUIRA</t>
-  </si>
-  <si>
-    <t>VILLAGARZON</t>
-  </si>
-  <si>
-    <t>PUERTO LOPEZ</t>
-  </si>
-  <si>
-    <t>TOLU VIEJO</t>
-  </si>
-  <si>
-    <t>BELEN DE UMBRIA</t>
-  </si>
-  <si>
-    <t>DISTRACCION</t>
-  </si>
-  <si>
-    <t>PUERTO ASIS</t>
-  </si>
-  <si>
-    <t>TIMANA</t>
-  </si>
-  <si>
-    <t>PAEZ</t>
-  </si>
-  <si>
-    <t>INZA</t>
-  </si>
-  <si>
-    <t>ALTO BAUDO</t>
-  </si>
-  <si>
-    <t>PUERTO GUZMAN</t>
-  </si>
-  <si>
-    <t>POPAYAN</t>
-  </si>
-  <si>
-    <t>MEDIO BAUDO</t>
-  </si>
-  <si>
-    <t>BAHIA SOLANO</t>
-  </si>
-  <si>
-    <t>LOPEZ DE MICAY</t>
-  </si>
-  <si>
-    <t>SUPIA</t>
-  </si>
-  <si>
-    <t>SABANAS DE SAN ANGEL</t>
-  </si>
-  <si>
-    <t>ACANDI</t>
-  </si>
-  <si>
-    <t>SAN PEDRO DE URABA</t>
-  </si>
-  <si>
-    <t>ITSMINA</t>
-  </si>
-  <si>
     <t>NOMB_MPIO</t>
+  </si>
+  <si>
+    <t>BOGOTA, D.C.</t>
+  </si>
+  <si>
+    <t>BOGOTÁ, D.C.</t>
+  </si>
+  <si>
+    <t>CUASPÚD</t>
+  </si>
+  <si>
+    <t>PURACÉ</t>
+  </si>
+  <si>
+    <t>COLÓN</t>
+  </si>
+  <si>
+    <t>TIMBIQUÍ</t>
+  </si>
+  <si>
+    <t>PUERTO LEGUÍZAMO</t>
+  </si>
+  <si>
+    <t>ÍQUIRA</t>
+  </si>
+  <si>
+    <t>VILLAGARZÓN</t>
+  </si>
+  <si>
+    <t>PUERTO LÓPEZ</t>
+  </si>
+  <si>
+    <t>TOLÚ VIEJO</t>
+  </si>
+  <si>
+    <t>BELÉN DE UMBRÍA</t>
+  </si>
+  <si>
+    <t>DISTRACCIÓN</t>
+  </si>
+  <si>
+    <t>PUERTO ASÍS</t>
+  </si>
+  <si>
+    <t>TIMANÁ</t>
+  </si>
+  <si>
+    <t>PÁEZ</t>
+  </si>
+  <si>
+    <t>INZÁ</t>
+  </si>
+  <si>
+    <t>JURADÓ</t>
+  </si>
+  <si>
+    <t>ALTO BAUDÓ</t>
+  </si>
+  <si>
+    <t>PUERTO GUZMÁN</t>
+  </si>
+  <si>
+    <t>CÓRDOBA</t>
+  </si>
+  <si>
+    <t>POPAYÁN</t>
+  </si>
+  <si>
+    <t>MEDIO BAUDÓ</t>
+  </si>
+  <si>
+    <t>ISTMINA</t>
+  </si>
+  <si>
+    <t>BAHÍA SOLANO</t>
+  </si>
+  <si>
+    <t>LÓPEZ DE MICAY</t>
+  </si>
+  <si>
+    <t>SUPÍA</t>
+  </si>
+  <si>
+    <t>SABANAS DE SAN ÁNGEL</t>
+  </si>
+  <si>
+    <t>BOLÍVAR</t>
+  </si>
+  <si>
+    <t>ACANDÍ</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DE URABÁ</t>
+  </si>
+  <si>
+    <t>ZULAYTH ANGELICA</t>
+  </si>
+  <si>
+    <t>IMBAJOA ROMERO</t>
+  </si>
+  <si>
+    <t>SAN JOSE DEL PEPINO</t>
+  </si>
+  <si>
+    <t>EXT_S21-00014441-PQRSD-014414-</t>
+  </si>
+  <si>
+    <t>JOSE SANTOS</t>
+  </si>
+  <si>
+    <t>LARRAHONDA GUERRERO</t>
+  </si>
+  <si>
+    <t>PIBI PAI</t>
+  </si>
+  <si>
+    <t>EXTSM_21_EMAIL</t>
+  </si>
+  <si>
+    <t>SOGAMOSO SANTA</t>
+  </si>
+  <si>
+    <t>GUATAVITA TUA</t>
+  </si>
+  <si>
+    <t>miguelsogamoso2@gmail.com</t>
+  </si>
+  <si>
+    <t>DANIEL HERNANDO</t>
+  </si>
+  <si>
+    <t>NASTACUAS GARCIA</t>
+  </si>
+  <si>
+    <t>VALLE HERMOSO</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>VELASQUEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLARICA </t>
+  </si>
+  <si>
+    <t>EXTMS_21 EMAIL</t>
+  </si>
+  <si>
+    <t>CARLOS  ANDRES</t>
+  </si>
+  <si>
+    <t>PAI BISBICUS</t>
+  </si>
+  <si>
+    <t>LA TURBIA</t>
+  </si>
+  <si>
+    <t>EXTMS-21 EMAIL</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>TAPIERO YATE</t>
+  </si>
+  <si>
+    <t>AMBIKA</t>
+  </si>
+  <si>
+    <t>ALEJO</t>
+  </si>
+  <si>
+    <t>TISOY JACANAMIJOY</t>
+  </si>
+  <si>
+    <t>SELVAS DEL PUTUMAYO</t>
+  </si>
+  <si>
+    <t>EXTMS21-EMAIL</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>FERNANDO GOMEZ</t>
+  </si>
+  <si>
+    <t>SAN SEBASTIÁN</t>
+  </si>
+  <si>
+    <t>SAN SEBASTIAN</t>
+  </si>
+  <si>
+    <t>ABEL</t>
+  </si>
+  <si>
+    <t>MEZA MEDINA</t>
+  </si>
+  <si>
+    <t>300-001 No 011-2021</t>
+  </si>
+  <si>
+    <t>CERRO GUADUA</t>
+  </si>
+  <si>
+    <t>EXT_S21-00012275-PQRSD-012249-</t>
+  </si>
+  <si>
+    <t>HERMEN</t>
+  </si>
+  <si>
+    <t>NASTACUAS PAI</t>
+  </si>
+  <si>
+    <t>CHANUL</t>
+  </si>
+  <si>
+    <t>MARIA DEISY</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>CHICUAMBE LAS BRISAS</t>
+  </si>
+  <si>
+    <t>EXT_S21-00023227-PQRSD-023188-</t>
+  </si>
+  <si>
+    <t>RAUL ABEL</t>
+  </si>
+  <si>
+    <t>PASCAL CUAZALUZAN</t>
+  </si>
+  <si>
+    <t>SAN ANDRÉS DE TUMACO</t>
+  </si>
+  <si>
+    <t>EXT_S20-00020422-PQRSD-020357-</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DIAZ CEBALLOS</t>
+  </si>
+  <si>
+    <t>PLANADAS DE TELEMBI</t>
+  </si>
+  <si>
+    <t>SAMANIEGO</t>
+  </si>
+  <si>
+    <t>EXT_S21-00023786-PQRSD-023740-</t>
+  </si>
+  <si>
+    <t>JAIRO</t>
+  </si>
+  <si>
+    <t>YARA</t>
+  </si>
+  <si>
+    <t>NANURCO</t>
+  </si>
+  <si>
+    <t>EXT_S21-00018445-PQRSD-018411-</t>
+  </si>
+  <si>
+    <t>HUMBERTO ALIRIO</t>
+  </si>
+  <si>
+    <t>GARCÍA MARÍN</t>
+  </si>
+  <si>
+    <t>MARIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>YAPOROX</t>
+  </si>
+  <si>
+    <t>PURIFICACIÓN</t>
+  </si>
+  <si>
+    <t>EXT_S21-00022350-PQRSD-022313-</t>
+  </si>
+  <si>
+    <t>CLIMACO</t>
+  </si>
+  <si>
+    <t>CUERO CARDENAS</t>
+  </si>
+  <si>
+    <t>PAPAYO</t>
+  </si>
+  <si>
+    <t>EXT_S21-00001766-PQRSD-001757-</t>
+  </si>
+  <si>
+    <t>MIRANDA VOLVERAS</t>
+  </si>
+  <si>
+    <t>COFRADIA</t>
+  </si>
+  <si>
+    <t>CAJIBÍO</t>
+  </si>
+  <si>
+    <t>EXT_S21-00014289-PQRSD-014262-</t>
+  </si>
+  <si>
+    <t>TITO</t>
+  </si>
+  <si>
+    <t>SILVA GARRIDO</t>
+  </si>
+  <si>
+    <t>CAÑO COLORADO</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>HERRERA SANDOVAL</t>
+  </si>
+  <si>
+    <t>FRITO</t>
+  </si>
+  <si>
+    <t>BAJO RIO GUAINIA Y RIO NEGRO</t>
+  </si>
+  <si>
+    <t>SAN FELIPE</t>
+  </si>
+  <si>
+    <t>TULIO</t>
+  </si>
+  <si>
+    <t>GARRIDO CAMICO</t>
+  </si>
+  <si>
+    <t>PUNTA BARBOSA</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>CEDEÑO GARRIDO</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ RODRIGUEZ   </t>
+  </si>
+  <si>
+    <t>GARZA MORICHAL</t>
+  </si>
+  <si>
+    <t>CUENCA MEDIA Y ALTA DEL RIO INIRIDA</t>
+  </si>
+  <si>
+    <t>INÍRIDA</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>CARRILLO PULIDO</t>
+  </si>
+  <si>
+    <t>CAÑO NEGRO</t>
+  </si>
+  <si>
+    <t>SILVIO ONESIMO</t>
+  </si>
+  <si>
+    <t>NASPIRAN JOJOA</t>
+  </si>
+  <si>
+    <t>MOCONDINO</t>
+  </si>
+  <si>
+    <t>EXT_S21-00042015-PQRSD-041308-</t>
+  </si>
+  <si>
+    <t>GONZALEZ DURANTE</t>
+  </si>
+  <si>
+    <t>PUERTO VALENCIA</t>
+  </si>
+  <si>
+    <t>RAFAEL SEGUNDO</t>
+  </si>
+  <si>
+    <t>MARTINEZ VILLAMIL</t>
+  </si>
+  <si>
+    <t>ACTA No. 9122</t>
+  </si>
+  <si>
+    <t>AYWJAWASHI EL JORDAN</t>
+  </si>
+  <si>
+    <t>SINCELEJO</t>
+  </si>
+  <si>
+    <t>EXT_S21-00021870-PQRSD-021833-</t>
+  </si>
+  <si>
+    <t>ANDRES DOMINGO</t>
+  </si>
+  <si>
+    <t>CHIRIMIA BARQUEÑO</t>
+  </si>
+  <si>
+    <t>NUEVA UNION</t>
+  </si>
+  <si>
+    <t>ALMORZADERO SAN ISIDRO Y LA NUEVA UNION</t>
+  </si>
+  <si>
+    <t>EXT_S21-00023242-PQRSD-023203-</t>
+  </si>
+  <si>
+    <t>YECXY KATHERINE</t>
+  </si>
+  <si>
+    <t>YANGUATIN NASTACUAZ</t>
+  </si>
+  <si>
+    <t>CRISTALINA II</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>EXT_S21-00013179-PQRSD-013153-</t>
   </si>
 </sst>
 </file>
@@ -3922,7 +4282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3943,6 +4303,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4278,15 +4639,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3089441F-7B2C-4B82-A63A-21313A3829BB}">
-  <dimension ref="A1:T280"/>
+  <dimension ref="A1:T313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="18"/>
+    <col min="6" max="7" width="11.42578125" style="18"/>
     <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" style="18"/>
     <col min="20" max="20" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4309,7 +4673,7 @@
       <c r="F1" s="14" t="s">
         <v>1217</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>1218</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -4322,15 +4686,15 @@
         <v>1229</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>1257</v>
+        <v>1230</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>1221</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>1222</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>1223</v>
       </c>
       <c r="O1" s="15" t="s">
@@ -4378,10 +4742,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
@@ -4430,10 +4794,10 @@
         <v>4</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>5</v>
@@ -4482,10 +4846,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>5</v>
@@ -5005,7 +5369,7 @@
         <v>41</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>5</v>
@@ -5054,10 +5418,10 @@
         <v>4</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>5</v>
@@ -5213,7 +5577,7 @@
         <v>78</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>5</v>
@@ -5317,7 +5681,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>5</v>
@@ -5369,7 +5733,7 @@
         <v>78</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>5</v>
@@ -5629,7 +5993,7 @@
         <v>27</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>5</v>
@@ -5681,7 +6045,7 @@
         <v>127</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>5</v>
@@ -6149,7 +6513,7 @@
         <v>27</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>5</v>
@@ -6201,7 +6565,7 @@
         <v>181</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>182</v>
@@ -7137,7 +7501,7 @@
         <v>243</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>245</v>
@@ -7299,7 +7663,7 @@
         <v>27</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>5</v>
@@ -7351,7 +7715,7 @@
         <v>27</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>5</v>
@@ -7403,7 +7767,7 @@
         <v>27</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>5</v>
@@ -7455,7 +7819,7 @@
         <v>27</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>5</v>
@@ -7507,7 +7871,7 @@
         <v>27</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>5</v>
@@ -7611,7 +7975,7 @@
         <v>307</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>5</v>
@@ -7975,7 +8339,7 @@
         <v>322</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>5</v>
@@ -8599,7 +8963,7 @@
         <v>78</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>5</v>
@@ -8755,7 +9119,7 @@
         <v>27</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>5</v>
@@ -8859,7 +9223,7 @@
         <v>27</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>5</v>
@@ -8911,7 +9275,7 @@
         <v>27</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>5</v>
@@ -8963,7 +9327,7 @@
         <v>27</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>5</v>
@@ -9067,7 +9431,7 @@
         <v>27</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>5</v>
@@ -9119,7 +9483,7 @@
         <v>127</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>5</v>
@@ -9431,7 +9795,7 @@
         <v>78</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>5</v>
@@ -9697,7 +10061,7 @@
         <v>78</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>5</v>
@@ -9749,7 +10113,7 @@
         <v>78</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>5</v>
@@ -9801,7 +10165,7 @@
         <v>78</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>5</v>
@@ -9853,7 +10217,7 @@
         <v>78</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>5</v>
@@ -9905,7 +10269,7 @@
         <v>78</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>5</v>
@@ -9957,7 +10321,7 @@
         <v>78</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>5</v>
@@ -10009,7 +10373,7 @@
         <v>78</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>5</v>
@@ -10119,7 +10483,7 @@
         <v>520</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>519</v>
+        <v>1248</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>5</v>
@@ -10171,7 +10535,7 @@
         <v>520</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>519</v>
+        <v>1248</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>5</v>
@@ -10327,7 +10691,7 @@
         <v>520</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>5</v>
@@ -10379,7 +10743,7 @@
         <v>520</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>5</v>
@@ -10431,7 +10795,7 @@
         <v>520</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>5</v>
@@ -10483,7 +10847,7 @@
         <v>520</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="L119" s="7" t="s">
         <v>5</v>
@@ -10639,7 +11003,7 @@
         <v>78</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>5</v>
@@ -10697,7 +11061,7 @@
         <v>78</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="L123" s="7" t="s">
         <v>5</v>
@@ -10801,7 +11165,7 @@
         <v>78</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>5</v>
@@ -10859,7 +11223,7 @@
         <v>27</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>5</v>
@@ -10963,7 +11327,7 @@
         <v>520</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>519</v>
+        <v>1248</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>5</v>
@@ -11119,7 +11483,7 @@
         <v>78</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>5</v>
@@ -11171,7 +11535,7 @@
         <v>78</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>5</v>
@@ -11275,7 +11639,7 @@
         <v>41</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>34</v>
+        <v>1251</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>5</v>
@@ -11535,7 +11899,7 @@
         <v>27</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="L139" s="7" t="s">
         <v>5</v>
@@ -11697,7 +12061,7 @@
         <v>27</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>5</v>
@@ -11801,7 +12165,7 @@
         <v>27</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>5</v>
@@ -11957,7 +12321,7 @@
         <v>78</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="L147" s="7" t="s">
         <v>5</v>
@@ -12113,7 +12477,7 @@
         <v>181</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>5</v>
@@ -12269,7 +12633,7 @@
         <v>520</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>519</v>
+        <v>1248</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>5</v>
@@ -12321,7 +12685,7 @@
         <v>520</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>519</v>
+        <v>1248</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>5</v>
@@ -12529,7 +12893,7 @@
         <v>27</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>5</v>
@@ -12841,7 +13205,7 @@
         <v>27</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>5</v>
@@ -12893,7 +13257,7 @@
         <v>27</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L165" s="7" t="s">
         <v>5</v>
@@ -13309,7 +13673,7 @@
         <v>520</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="L173" s="7" t="s">
         <v>5</v>
@@ -13413,7 +13777,7 @@
         <v>27</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L175" s="7" t="s">
         <v>5</v>
@@ -13465,7 +13829,7 @@
         <v>520</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>788</v>
+        <v>1254</v>
       </c>
       <c r="L176" s="2" t="s">
         <v>5</v>
@@ -14037,7 +14401,7 @@
         <v>27</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L187" s="7" t="s">
         <v>5</v>
@@ -14141,7 +14505,7 @@
         <v>27</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L189" s="7" t="s">
         <v>5</v>
@@ -14193,7 +14557,7 @@
         <v>27</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>5</v>
@@ -14349,7 +14713,7 @@
         <v>27</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L193" s="7" t="s">
         <v>5</v>
@@ -14453,7 +14817,7 @@
         <v>27</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L195" s="7" t="s">
         <v>5</v>
@@ -14505,7 +14869,7 @@
         <v>520</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>5</v>
@@ -14557,7 +14921,7 @@
         <v>520</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="L197" s="7" t="s">
         <v>5</v>
@@ -14661,7 +15025,7 @@
         <v>520</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="L199" s="7" t="s">
         <v>5</v>
@@ -14713,7 +15077,7 @@
         <v>520</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>5</v>
@@ -14817,7 +15181,7 @@
         <v>78</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="L202" s="2" t="s">
         <v>5</v>
@@ -14869,7 +15233,7 @@
         <v>27</v>
       </c>
       <c r="K203" s="7" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L203" s="7" t="s">
         <v>5</v>
@@ -14921,7 +15285,7 @@
         <v>27</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>5</v>
@@ -14973,7 +15337,7 @@
         <v>27</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L205" s="7" t="s">
         <v>5</v>
@@ -15025,7 +15389,7 @@
         <v>27</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>5</v>
@@ -15129,7 +15493,7 @@
         <v>520</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>5</v>
@@ -15493,7 +15857,7 @@
         <v>27</v>
       </c>
       <c r="K215" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L215" s="7" t="s">
         <v>5</v>
@@ -15545,7 +15909,7 @@
         <v>27</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L216" s="2" t="s">
         <v>5</v>
@@ -15597,7 +15961,7 @@
         <v>27</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L217" s="7" t="s">
         <v>5</v>
@@ -15649,7 +16013,7 @@
         <v>27</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="L218" s="2" t="s">
         <v>5</v>
@@ -15961,7 +16325,7 @@
         <v>224</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="L224" s="2" t="s">
         <v>5</v>
@@ -16013,7 +16377,7 @@
         <v>78</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="L225" s="7" t="s">
         <v>5</v>
@@ -16117,7 +16481,7 @@
         <v>132</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="L227" s="7" t="s">
         <v>5</v>
@@ -16221,7 +16585,7 @@
         <v>158</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>442</v>
+        <v>1259</v>
       </c>
       <c r="L229" s="7" t="s">
         <v>5</v>
@@ -16741,7 +17105,7 @@
         <v>520</v>
       </c>
       <c r="K239" s="7" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="L239" s="7" t="s">
         <v>5</v>
@@ -16793,7 +17157,7 @@
         <v>520</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="L240" s="2" t="s">
         <v>1052</v>
@@ -16949,7 +17313,7 @@
         <v>27</v>
       </c>
       <c r="K243" s="7" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="L243" s="7" t="s">
         <v>5</v>
@@ -17053,7 +17417,7 @@
         <v>27</v>
       </c>
       <c r="K245" s="7" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L245" s="7" t="s">
         <v>5</v>
@@ -17313,7 +17677,7 @@
         <v>19</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="L250" s="2" t="s">
         <v>21</v>
@@ -17989,7 +18353,7 @@
         <v>27</v>
       </c>
       <c r="K263" s="7" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L263" s="7" t="s">
         <v>5</v>
@@ -18041,7 +18405,7 @@
         <v>27</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="L264" s="2" t="s">
         <v>5</v>
@@ -18145,7 +18509,7 @@
         <v>27</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="L266" s="2" t="s">
         <v>5</v>
@@ -18892,6 +19256,1557 @@
       <c r="R280" s="4"/>
       <c r="S280" s="5"/>
       <c r="T280" s="17"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A281" s="18">
+        <v>44247</v>
+      </c>
+      <c r="B281" t="s">
+        <v>464</v>
+      </c>
+      <c r="C281" t="s">
+        <v>465</v>
+      </c>
+      <c r="D281">
+        <v>12279616</v>
+      </c>
+      <c r="E281" t="s">
+        <v>466</v>
+      </c>
+      <c r="F281" s="18">
+        <v>44264</v>
+      </c>
+      <c r="G281" s="18">
+        <v>44158</v>
+      </c>
+      <c r="H281" t="s">
+        <v>467</v>
+      </c>
+      <c r="I281" t="s">
+        <v>467</v>
+      </c>
+      <c r="J281" t="s">
+        <v>127</v>
+      </c>
+      <c r="K281" t="s">
+        <v>389</v>
+      </c>
+      <c r="L281" t="s">
+        <v>5</v>
+      </c>
+      <c r="M281" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N281" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O281" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A282" s="18">
+        <v>44248</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D282">
+        <v>1069752133</v>
+      </c>
+      <c r="E282">
+        <v>17</v>
+      </c>
+      <c r="F282" s="18">
+        <v>44213</v>
+      </c>
+      <c r="G282" s="18">
+        <v>44185</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I282" t="s">
+        <v>4</v>
+      </c>
+      <c r="J282" t="s">
+        <v>27</v>
+      </c>
+      <c r="K282" t="s">
+        <v>263</v>
+      </c>
+      <c r="L282" t="s">
+        <v>5</v>
+      </c>
+      <c r="M282" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N282" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O282" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A283" s="18">
+        <v>44330</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D283">
+        <v>18145329</v>
+      </c>
+      <c r="E283">
+        <v>28</v>
+      </c>
+      <c r="F283" s="18">
+        <v>44221</v>
+      </c>
+      <c r="G283" s="18">
+        <v>44182</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I283" t="s">
+        <v>4</v>
+      </c>
+      <c r="J283" t="s">
+        <v>27</v>
+      </c>
+      <c r="K283" t="s">
+        <v>367</v>
+      </c>
+      <c r="L283" t="s">
+        <v>5</v>
+      </c>
+      <c r="M283" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N283" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O283" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A284" s="18">
+        <v>44340</v>
+      </c>
+      <c r="B284" t="s">
+        <v>881</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D284">
+        <v>2356904</v>
+      </c>
+      <c r="E284" t="s">
+        <v>170</v>
+      </c>
+      <c r="F284" s="18">
+        <v>44201</v>
+      </c>
+      <c r="G284" s="18">
+        <v>44183</v>
+      </c>
+      <c r="H284" t="s">
+        <v>39</v>
+      </c>
+      <c r="I284" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J284" t="s">
+        <v>212</v>
+      </c>
+      <c r="K284" t="s">
+        <v>213</v>
+      </c>
+      <c r="L284" t="s">
+        <v>5</v>
+      </c>
+      <c r="M284" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N284" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O284" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A285" s="18">
+        <v>44335</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D285">
+        <v>1148442710</v>
+      </c>
+      <c r="E285">
+        <v>29</v>
+      </c>
+      <c r="F285" s="18">
+        <v>44230</v>
+      </c>
+      <c r="G285" s="18">
+        <v>44141</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I285" t="s">
+        <v>4</v>
+      </c>
+      <c r="J285" t="s">
+        <v>27</v>
+      </c>
+      <c r="K285" t="s">
+        <v>367</v>
+      </c>
+      <c r="L285" t="s">
+        <v>5</v>
+      </c>
+      <c r="M285" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N285" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O285" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A286" s="18">
+        <v>44335</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D286">
+        <v>97436761</v>
+      </c>
+      <c r="E286">
+        <v>36</v>
+      </c>
+      <c r="F286" s="18">
+        <v>44221</v>
+      </c>
+      <c r="G286" s="18">
+        <v>44217</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I286" t="s">
+        <v>4</v>
+      </c>
+      <c r="J286" t="s">
+        <v>27</v>
+      </c>
+      <c r="K286" t="s">
+        <v>367</v>
+      </c>
+      <c r="L286" t="s">
+        <v>5</v>
+      </c>
+      <c r="M286" s="18">
+        <v>44217</v>
+      </c>
+      <c r="N286" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O286" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A287" s="18">
+        <v>44342</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D287">
+        <v>1006849602</v>
+      </c>
+      <c r="E287">
+        <v>30</v>
+      </c>
+      <c r="F287" s="18">
+        <v>44316</v>
+      </c>
+      <c r="G287" s="18">
+        <v>44312</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I287" t="s">
+        <v>4</v>
+      </c>
+      <c r="J287" t="s">
+        <v>27</v>
+      </c>
+      <c r="K287" t="s">
+        <v>367</v>
+      </c>
+      <c r="L287" t="s">
+        <v>5</v>
+      </c>
+      <c r="M287" s="18">
+        <v>44312</v>
+      </c>
+      <c r="N287" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O287" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A288" s="18">
+        <v>44218</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D288">
+        <v>79485748</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+      <c r="F288" s="18">
+        <v>44210</v>
+      </c>
+      <c r="G288" s="18">
+        <v>44149</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I288" t="s">
+        <v>4</v>
+      </c>
+      <c r="J288" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K288" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L288" t="s">
+        <v>5</v>
+      </c>
+      <c r="M288" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N288" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A289" s="18">
+        <v>44342</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D289">
+        <v>18187288</v>
+      </c>
+      <c r="E289">
+        <v>44</v>
+      </c>
+      <c r="F289" s="18">
+        <v>44235</v>
+      </c>
+      <c r="G289" s="18">
+        <v>44192</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I289" t="s">
+        <v>4</v>
+      </c>
+      <c r="J289" t="s">
+        <v>27</v>
+      </c>
+      <c r="K289" t="s">
+        <v>367</v>
+      </c>
+      <c r="L289" t="s">
+        <v>5</v>
+      </c>
+      <c r="M289" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N289" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O289" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A290" s="18">
+        <v>44217</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D290">
+        <v>10546593</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" s="18">
+        <v>44198</v>
+      </c>
+      <c r="G290" s="18">
+        <v>43860</v>
+      </c>
+      <c r="H290" t="s">
+        <v>39</v>
+      </c>
+      <c r="I290" t="s">
+        <v>4</v>
+      </c>
+      <c r="J290" t="s">
+        <v>78</v>
+      </c>
+      <c r="K290" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L290" t="s">
+        <v>5</v>
+      </c>
+      <c r="M290" s="18">
+        <v>44198</v>
+      </c>
+      <c r="N290" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O290" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A291" s="18">
+        <v>44217</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D291">
+        <v>10546593</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291" s="18">
+        <v>44198</v>
+      </c>
+      <c r="G291" s="18">
+        <v>44195</v>
+      </c>
+      <c r="H291" t="s">
+        <v>39</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J291" t="s">
+        <v>78</v>
+      </c>
+      <c r="K291" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L291" t="s">
+        <v>5</v>
+      </c>
+      <c r="M291" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N291" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O291" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A292" s="18">
+        <v>44328</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D292">
+        <v>97425212</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F292" s="18">
+        <v>44235</v>
+      </c>
+      <c r="G292" s="18">
+        <v>44183</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I292" t="s">
+        <v>4</v>
+      </c>
+      <c r="J292" t="s">
+        <v>27</v>
+      </c>
+      <c r="K292" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L292" t="s">
+        <v>5</v>
+      </c>
+      <c r="M292" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N292" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O292" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A293" s="18">
+        <v>44329</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D293">
+        <v>18131034</v>
+      </c>
+      <c r="E293">
+        <v>24</v>
+      </c>
+      <c r="F293" s="18">
+        <v>44221</v>
+      </c>
+      <c r="G293" s="18">
+        <v>44185</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I293" t="s">
+        <v>4</v>
+      </c>
+      <c r="J293" t="s">
+        <v>27</v>
+      </c>
+      <c r="K293" t="s">
+        <v>367</v>
+      </c>
+      <c r="L293" t="s">
+        <v>5</v>
+      </c>
+      <c r="M293" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N293" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O293" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A294" s="18">
+        <v>44343</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D294">
+        <v>28865689</v>
+      </c>
+      <c r="E294" t="s">
+        <v>32</v>
+      </c>
+      <c r="F294" s="18">
+        <v>44215</v>
+      </c>
+      <c r="G294" s="18">
+        <v>44173</v>
+      </c>
+      <c r="H294" t="s">
+        <v>39</v>
+      </c>
+      <c r="I294" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J294" t="s">
+        <v>212</v>
+      </c>
+      <c r="K294" t="s">
+        <v>213</v>
+      </c>
+      <c r="L294" t="s">
+        <v>5</v>
+      </c>
+      <c r="M294" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N294" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O294" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A295" s="18">
+        <v>43973</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D295">
+        <v>87945122</v>
+      </c>
+      <c r="E295" t="s">
+        <v>32</v>
+      </c>
+      <c r="F295" s="18">
+        <v>44251</v>
+      </c>
+      <c r="G295" s="18">
+        <v>44186</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J295" t="s">
+        <v>41</v>
+      </c>
+      <c r="K295" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L295" t="s">
+        <v>5</v>
+      </c>
+      <c r="M295" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N295" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O295" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A296" s="18">
+        <v>44343</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D296">
+        <v>87450985</v>
+      </c>
+      <c r="E296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" s="18">
+        <v>44204</v>
+      </c>
+      <c r="G296" s="18">
+        <v>44184</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I296" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J296" t="s">
+        <v>41</v>
+      </c>
+      <c r="K296" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L296" t="s">
+        <v>5</v>
+      </c>
+      <c r="M296" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N296" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O296" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A297" s="18">
+        <v>44259</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D297">
+        <v>5963905</v>
+      </c>
+      <c r="E297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F297" s="18">
+        <v>44238</v>
+      </c>
+      <c r="G297" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H297" t="s">
+        <v>39</v>
+      </c>
+      <c r="I297" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J297" t="s">
+        <v>212</v>
+      </c>
+      <c r="K297" t="s">
+        <v>339</v>
+      </c>
+      <c r="L297" t="s">
+        <v>5</v>
+      </c>
+      <c r="M297" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N297" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O297" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A298" s="18">
+        <v>44343</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D298">
+        <v>18142324</v>
+      </c>
+      <c r="E298">
+        <v>18</v>
+      </c>
+      <c r="F298" s="18">
+        <v>44221</v>
+      </c>
+      <c r="G298" s="18">
+        <v>44170</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I298" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J298" t="s">
+        <v>27</v>
+      </c>
+      <c r="K298" t="s">
+        <v>367</v>
+      </c>
+      <c r="L298" t="s">
+        <v>5</v>
+      </c>
+      <c r="M298" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N298" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O298" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A299" s="18">
+        <v>44344</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D299">
+        <v>28894055</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" s="18">
+        <v>44267</v>
+      </c>
+      <c r="G299" s="18">
+        <v>44255</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I299" t="s">
+        <v>4</v>
+      </c>
+      <c r="J299" t="s">
+        <v>212</v>
+      </c>
+      <c r="K299" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L299" t="s">
+        <v>5</v>
+      </c>
+      <c r="M299" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N299" s="18">
+        <v>44926</v>
+      </c>
+      <c r="O299" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A300" s="18">
+        <v>44208</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D300">
+        <v>1028180315</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" s="18">
+        <v>44208</v>
+      </c>
+      <c r="G300" s="18">
+        <v>44196</v>
+      </c>
+      <c r="H300" t="s">
+        <v>39</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J300" t="s">
+        <v>520</v>
+      </c>
+      <c r="K300" t="s">
+        <v>788</v>
+      </c>
+      <c r="L300" t="s">
+        <v>5</v>
+      </c>
+      <c r="M300" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N300" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O300" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A301" s="18">
+        <v>44248</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D301">
+        <v>48575280</v>
+      </c>
+      <c r="E301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" s="18">
+        <v>44225</v>
+      </c>
+      <c r="G301" s="18">
+        <v>44192</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I301" t="s">
+        <v>4</v>
+      </c>
+      <c r="J301" t="s">
+        <v>78</v>
+      </c>
+      <c r="K301" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L301" t="s">
+        <v>5</v>
+      </c>
+      <c r="M301" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N301" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O301" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A302" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D302">
+        <v>1903183</v>
+      </c>
+      <c r="E302">
+        <v>12</v>
+      </c>
+      <c r="F302" s="18">
+        <v>44215</v>
+      </c>
+      <c r="G302" s="18">
+        <v>44199</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I302" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J302" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K302" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L302" t="s">
+        <v>245</v>
+      </c>
+      <c r="M302" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N302" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O302" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A303" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D303">
+        <v>1121709935</v>
+      </c>
+      <c r="E303">
+        <v>14</v>
+      </c>
+      <c r="F303" s="18">
+        <v>44224</v>
+      </c>
+      <c r="G303" s="18">
+        <v>44204</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I303" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J303" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K303" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L303" t="s">
+        <v>245</v>
+      </c>
+      <c r="M303" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N303" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O303" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A304" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D304">
+        <v>1010030668</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+      <c r="F304" s="18">
+        <v>44224</v>
+      </c>
+      <c r="G304" s="18">
+        <v>44187</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I304" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K304" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L304" t="s">
+        <v>245</v>
+      </c>
+      <c r="M304" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N304" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O304" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A305" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D305">
+        <v>19030158</v>
+      </c>
+      <c r="E305">
+        <v>17</v>
+      </c>
+      <c r="F305" s="18">
+        <v>44224</v>
+      </c>
+      <c r="G305" s="18">
+        <v>44206</v>
+      </c>
+      <c r="H305" t="s">
+        <v>974</v>
+      </c>
+      <c r="I305" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J305" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K305" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L305" t="s">
+        <v>245</v>
+      </c>
+      <c r="M305" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N305" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O305" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A306" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D306">
+        <v>1010080166</v>
+      </c>
+      <c r="E306">
+        <v>18</v>
+      </c>
+      <c r="F306" s="18">
+        <v>44229</v>
+      </c>
+      <c r="G306" s="18">
+        <v>44198</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I306" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J306" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K306" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L306" t="s">
+        <v>245</v>
+      </c>
+      <c r="M306" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N306" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O306" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A307" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D307">
+        <v>1121716555</v>
+      </c>
+      <c r="E307">
+        <v>19</v>
+      </c>
+      <c r="F307" s="18">
+        <v>44229</v>
+      </c>
+      <c r="G307" s="18">
+        <v>44206</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I307" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J307" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K307" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L307" t="s">
+        <v>245</v>
+      </c>
+      <c r="M307" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N307" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O307" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A308" s="18">
+        <v>44335</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D308">
+        <v>12998179</v>
+      </c>
+      <c r="E308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" s="18">
+        <v>44213</v>
+      </c>
+      <c r="G308" s="18">
+        <v>44163</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I308" t="s">
+        <v>4</v>
+      </c>
+      <c r="J308" t="s">
+        <v>41</v>
+      </c>
+      <c r="K308" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L308" t="s">
+        <v>5</v>
+      </c>
+      <c r="M308" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N308" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O308" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A309" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B309" t="s">
+        <v>232</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D309">
+        <v>1121707467</v>
+      </c>
+      <c r="E309">
+        <v>21</v>
+      </c>
+      <c r="F309" s="18">
+        <v>44230</v>
+      </c>
+      <c r="G309" s="18">
+        <v>44199</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I309" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J309" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K309" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L309" t="s">
+        <v>5</v>
+      </c>
+      <c r="M309" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N309" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O309" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A310" s="18">
+        <v>44235</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D310">
+        <v>19030183</v>
+      </c>
+      <c r="E310">
+        <v>12</v>
+      </c>
+      <c r="F310" s="18">
+        <v>44215</v>
+      </c>
+      <c r="G310" s="18">
+        <v>44199</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I310" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J310" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K310" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L310" t="s">
+        <v>245</v>
+      </c>
+      <c r="M310" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N310" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O310" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A311" s="18">
+        <v>44347</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D311">
+        <v>92601593</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F311" s="18">
+        <v>44229</v>
+      </c>
+      <c r="G311" s="18">
+        <v>44185</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I311" t="s">
+        <v>4</v>
+      </c>
+      <c r="J311" t="s">
+        <v>243</v>
+      </c>
+      <c r="K311" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L311" t="s">
+        <v>245</v>
+      </c>
+      <c r="M311" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N311" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O311" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A312" s="18">
+        <v>44336</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D312">
+        <v>1066838959</v>
+      </c>
+      <c r="E312">
+        <v>20</v>
+      </c>
+      <c r="F312" s="18">
+        <v>44222</v>
+      </c>
+      <c r="G312" s="18">
+        <v>44207</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J312" t="s">
+        <v>78</v>
+      </c>
+      <c r="K312" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L312" t="s">
+        <v>5</v>
+      </c>
+      <c r="M312" s="18">
+        <v>44222</v>
+      </c>
+      <c r="N312" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O312" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A313" s="18">
+        <v>44246</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D313">
+        <v>1017223450</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F313" s="18">
+        <v>44202</v>
+      </c>
+      <c r="G313" s="18">
+        <v>44191</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I313" t="s">
+        <v>4</v>
+      </c>
+      <c r="J313" t="s">
+        <v>27</v>
+      </c>
+      <c r="K313" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L313" t="s">
+        <v>5</v>
+      </c>
+      <c r="M313" s="18">
+        <v>44197</v>
+      </c>
+      <c r="N313" s="18">
+        <v>44561</v>
+      </c>
+      <c r="O313" t="s">
+        <v>1377</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D271:D280">
